--- a/vacation.xlsx
+++ b/vacation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreedevigattu/sree/projects/vacation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044E283A-8044-4E46-937D-D4D5B07C94AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F3BAD1-7446-6F49-B923-CEDFBB8AB670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{5463306C-1B74-C643-A4E9-135EB7D3C038}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5463306C-1B74-C643-A4E9-135EB7D3C038}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4991,8 +4991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EECF25-82B8-F949-A3E5-CEFE4AA053C9}">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AH4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5709,56 +5709,68 @@
         <f>(AD3-AD2)/AD2</f>
         <v>2.047781569965863E-2</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
+      <c r="AE5" s="1">
+        <f>(AE3-AE2)/AE2</f>
+        <v>2.0529715243956255E-2</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" ref="AE5:AH5" si="9">(AF3-AF2)/AF2</f>
+        <v>3.9672195417201142E-2</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>(AG3-AG2)/AG2</f>
+        <v>4.2258911318762492E-2</v>
+      </c>
+      <c r="AH5" s="1">
+        <f>(AH3-AH2)/AH2</f>
+        <v>5.4799323915987186E-2</v>
+      </c>
       <c r="AI5" s="1">
-        <f t="shared" ref="AI5:AN5" si="9">(AI3-AI2)/AI2</f>
+        <f t="shared" ref="AI5:AN5" si="10">(AI3-AI2)/AI2</f>
         <v>6.3168702818204692E-2</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9320129729647303E-2</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-4.2389962595652246E-2</v>
       </c>
       <c r="AL5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9753943785040394E-2</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4217337468446677E-2</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.2156491479453457E-2</v>
       </c>
       <c r="AO5" s="1">
-        <f t="shared" ref="AO5:AT5" si="10">(AO3-AO2)/AO2</f>
+        <f t="shared" ref="AO5:AT5" si="11">(AO3-AO2)/AO2</f>
         <v>1.4422939814728707E-2</v>
       </c>
       <c r="AP5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8885664376145844E-2</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.3921744034538419E-2</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1550869838231541E-2</v>
       </c>
       <c r="AS5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.8879562775475059E-2</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9290859069843172E-2</v>
       </c>
     </row>
@@ -5803,19 +5815,19 @@
         <v>-0.77392618933516688</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:N6" si="11">(K4-K3)/K3</f>
+        <f t="shared" ref="K6:N6" si="12">(K4-K3)/K3</f>
         <v>-0.75077558320544946</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.7273921921436225</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.72161239738031546</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.8675721561969463E-2</v>
       </c>
       <c r="O6" s="1">
@@ -5823,7 +5835,7 @@
         <v>2.6763990267639936E-2</v>
       </c>
       <c r="P6" s="1" t="e">
-        <f t="shared" ref="P6" si="12">(P4-P3)/P3</f>
+        <f t="shared" ref="P6" si="13">(P4-P3)/P3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="1">
@@ -5831,19 +5843,19 @@
         <v>-0.16304347826086948</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:U6" si="13">(R4-R3)/R3</f>
+        <f t="shared" ref="R6:U6" si="14">(R4-R3)/R3</f>
         <v>-7.2289156626506076E-2</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1.0752688172043163E-2</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.1643192488262976E-2</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.0505050505051221E-3</v>
       </c>
       <c r="V6" s="1">
@@ -5859,19 +5871,19 @@
         <v>2.3255813953488334E-2</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" ref="Y6:AB6" si="14">(Y4-Y3)/Y3</f>
+        <f t="shared" ref="Y6:AB6" si="15">(Y4-Y3)/Y3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.11059907834101376</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.127147766323024</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.94845360824742264</v>
       </c>
       <c r="AC6" s="1">
@@ -5882,56 +5894,68 @@
         <f>(AD4-AD3)/AD3</f>
         <v>-0.79933110367892979</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
+      <c r="AE6" s="1">
+        <f>(AE4-AE3)/AE3</f>
+        <v>-0.22447946280763018</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" ref="AE6:AH6" si="16">(AF4-AF3)/AF3</f>
+        <v>-0.99282971204021486</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>(AG4-AG3)/AG3</f>
+        <v>-0.9641934885821748</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>(AH4-AH3)/AH3</f>
+        <v>-0.93779901374295116</v>
+      </c>
       <c r="AI6" s="1">
-        <f t="shared" ref="AI6:AN6" si="15">(AI4-AI3)/AI3</f>
+        <f t="shared" ref="AI6:AN6" si="17">(AI4-AI3)/AI3</f>
         <v>7.389472926267281E-3</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-6.6093482351473984E-2</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.66439182364991678</v>
       </c>
       <c r="AL6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.99635965099122059</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.99388102793528588</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.9881753082816892</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" ref="AO6:AT6" si="16">(AO4-AO3)/AO3</f>
+        <f t="shared" ref="AO6:AT6" si="18">(AO4-AO3)/AO3</f>
         <v>-0.98453170359052711</v>
       </c>
       <c r="AP6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.97532456667211931</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.96251961043920731</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.95609179517405507</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.93502892607374322</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.9261707863189601</v>
       </c>
     </row>
@@ -6022,7 +6046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D774FF16-B42E-2444-A5B7-5F41A8D7F4C8}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
